--- a/data/censos_ICA/Censo_ICA_Porcinos_2023.xlsx
+++ b/data/censos_ICA/Censo_ICA_Porcinos_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pob_municipios_colombia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BAFD3A3-9E6B-487D-9A90-4A2037999026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DEE0139-63FD-4766-AE5F-70E3913713F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E861A1B8-6DF0-456E-8896-BF25E025C949}"/>
   </bookViews>
@@ -3656,8 +3656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1285B9DD-61C1-4169-BF74-52BF547A847F}">
   <dimension ref="A1:AG1123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A1097" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
